--- a/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
+++ b/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLemberger\Documents\Brix\FinalProject\BrixBank\BrixBank.Data\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996E9D7-62D3-4212-BE57-4DF827543207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336DF0CF-49C1-4A5C-BE04-E35AEB57B18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{56473CEF-7A49-4FFE-81FD-E5745E1F1BAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56473CEF-7A49-4FFE-81FD-E5745E1F1BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Visa" sheetId="2" r:id="rId1"/>
-    <sheet name="Isacart" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Age&gt;18</t>
   </si>
   <si>
     <t>Salary&lt;5000</t>
-  </si>
-  <si>
-    <t>Age&gt;20</t>
-  </si>
-  <si>
-    <t>Salary&gt;5800</t>
   </si>
   <si>
     <t>citizen==1</t>
@@ -403,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66275C33-5CB5-4D48-8627-68E9074EFE0F}">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
@@ -424,51 +416,11 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F2E27F-D485-4DCD-AECC-73F6C022AD26}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A97B451-EB8F-4EDB-8E63-836D345296AD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
+++ b/BrixBank.Data/bin/Debug/netcoreapp3.1/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLemberger\Documents\Brix\FinalProject\BrixBank\BrixBank.Data\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336DF0CF-49C1-4A5C-BE04-E35AEB57B18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB909161-DCC5-458D-A3F0-D86B64C7DA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56473CEF-7A49-4FFE-81FD-E5745E1F1BAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Visa" sheetId="2" r:id="rId1"/>
+    <sheet name="Isacart" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Age&gt;18</t>
+    <t>Age&gt;20</t>
   </si>
   <si>
-    <t>Salary&lt;5000</t>
+    <t>Salary&gt;7000</t>
   </si>
   <si>
-    <t>citizen==1</t>
+    <t>citizen==2</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
